--- a/data_processed/20250916/BTCUSDQMOMENT_20250916.xlsx
+++ b/data_processed/20250916/BTCUSDQMOMENT_20250916.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>14.23718895045043</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.1629144398419475</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.172053709851828</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.5442042084111586</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.41449392314042</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>16.1356679850286</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.1097892152838312</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04956861070216573</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.7087730146961063</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.076444197139277</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +914,18 @@
       <c r="H13" t="n">
         <v>9.094615366209824</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.04165398560769203</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.07034183773997779</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.4025093891708066</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.989496374744393</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -968,10 +992,18 @@
       <c r="H15" t="n">
         <v>8.775648177366282</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>-0.001236073648450034</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0744260083034482</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.09676815541920608</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.658017353560328</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1044,10 +1076,18 @@
       <c r="H17" t="n">
         <v>7.681348196542678</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.2465587268302678</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01772038477401534</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5642425798610297</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250916/BTCUSDQMOMENT_20250916.xlsx
+++ b/data_processed/20250916/BTCUSDQMOMENT_20250916.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>9.055620922796669</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.1227366928773208</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2977747339815092</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.0121057452347735</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.172310786008958</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>7.099423958564801</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.2721110030661992</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5975685436877082</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.02932312144336056</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.816670092425335</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250916/BTCUSDQMOMENT_20250916.xlsx
+++ b/data_processed/20250916/BTCUSDQMOMENT_20250916.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.49071084338882</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.194822487875913</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.657547312178322</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5045337537922706</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.387282082693997</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>6.157321997772498</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.05736490908427533</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.669056075986034</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1301275567536507</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.159255876829187</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
